--- a/PI-Aug-2019-stats/pres/data.xlsx
+++ b/PI-Aug-2019-stats/pres/data.xlsx
@@ -3,7 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C40F085-928F-3E4D-9FEA-9CB54D62197F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yonizohar/git/hermes/PI-Aug-2019-stats/pres/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5476AE6-A1F2-2747-AC26-A4BE8911EE62}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28340" xr2:uid="{0BC43700-610F-DE43-8A0A-49ABD771E3EF}"/>
   </bookViews>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -79,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -87,13 +92,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -129,7 +222,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF0CCC86-7A64-F84B-AB7C-094877D86F83}" name="Table1" displayName="Table1" ref="A1:F5" totalsRowShown="0" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF0CCC86-7A64-F84B-AB7C-094877D86F83}" name="Table1" displayName="Table1" ref="A1:F2" totalsRowShown="0" tableBorderDxfId="0">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{84356A37-A390-894A-8AF4-DA05E531C14B}" name=" "/>
     <tableColumn id="2" xr3:uid="{8E1C2663-15B1-1F48-A522-83068F308918}" name="CVC4-2018"/>
@@ -439,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F506D814-AEB9-FE45-9E68-9A33748D697E}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -487,61 +580,121 @@
         <v>8909</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B11" s="1">
         <v>1763</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C11" s="1">
         <v>1791</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D11" s="1">
         <v>2139</v>
       </c>
-      <c r="E3">
+      <c r="E11">
         <v>2558</v>
       </c>
-      <c r="F3">
+      <c r="F11" s="6">
         <v>2842</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B15" s="1">
         <v>7566</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C15" s="1">
         <v>8480</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D15" s="1">
         <v>7521</v>
       </c>
-      <c r="E4">
+      <c r="E15">
         <v>9180</v>
       </c>
-      <c r="F4">
+      <c r="F15" s="6">
         <v>11494</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B24" s="8">
         <v>22694</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C24" s="8">
         <v>23104</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8">
         <v>23111</v>
       </c>
-      <c r="F5">
+      <c r="F24" s="9">
         <v>23175</v>
       </c>
     </row>
